--- a/Safe_Results/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
+++ b/Safe_Results/SA_Capacity_Costs/SA_Capacity_Costs_HPLB.xlsx
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.6525</v>
+        <v>5.124099999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>21.3076</v>
+        <v>21.80395</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -533,31 +533,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2106.15675</v>
+        <v>2035.1345</v>
       </c>
       <c r="G2" t="n">
-        <v>1884.90245</v>
+        <v>1832.0381</v>
       </c>
       <c r="H2" t="n">
-        <v>221.2543000000001</v>
+        <v>203.0962</v>
       </c>
       <c r="I2" t="n">
-        <v>221.2543000000001</v>
+        <v>203.0962</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2255.5172</v>
+        <v>2180.4748</v>
       </c>
       <c r="L2" t="n">
-        <v>1884.901</v>
+        <v>1832.041</v>
       </c>
       <c r="M2" t="n">
-        <v>370.6162</v>
+        <v>348.4338</v>
       </c>
       <c r="N2" t="n">
-        <v>370.6162</v>
+        <v>348.4338</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.657</v>
+        <v>5.138</v>
       </c>
       <c r="C3" t="n">
-        <v>21.671</v>
+        <v>21.881</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2130.52</v>
+        <v>2060.294</v>
       </c>
       <c r="G3" t="n">
-        <v>1891.517</v>
+        <v>1834.905</v>
       </c>
       <c r="H3" t="n">
-        <v>239.003</v>
+        <v>225.389</v>
       </c>
       <c r="I3" t="n">
-        <v>239.003</v>
+        <v>225.389</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2253.434</v>
+        <v>2179.5908</v>
       </c>
       <c r="L3" t="n">
-        <v>1891.529</v>
+        <v>1834.945</v>
       </c>
       <c r="M3" t="n">
-        <v>361.905</v>
+        <v>344.6458</v>
       </c>
       <c r="N3" t="n">
-        <v>361.905</v>
+        <v>344.6458</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.455</v>
+        <v>5.911</v>
       </c>
       <c r="C4" t="n">
-        <v>27.614</v>
+        <v>29.315</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2942.825</v>
+        <v>2896.988</v>
       </c>
       <c r="G4" t="n">
-        <v>2685.915</v>
+        <v>2688.579</v>
       </c>
       <c r="H4" t="n">
-        <v>256.91</v>
+        <v>208.409</v>
       </c>
       <c r="I4" t="n">
-        <v>256.91</v>
+        <v>208.409</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2274.3248</v>
+        <v>2212.8646</v>
       </c>
       <c r="L4" t="n">
-        <v>2083.822</v>
+        <v>2049.397</v>
       </c>
       <c r="M4" t="n">
-        <v>190.5028</v>
+        <v>163.4676</v>
       </c>
       <c r="N4" t="n">
-        <v>190.5028</v>
+        <v>163.4676</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.6953</v>
+        <v>5.151</v>
       </c>
       <c r="C2" t="n">
-        <v>21.51655</v>
+        <v>22.1146</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -776,31 +776,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2126.21245</v>
+        <v>2054.9738</v>
       </c>
       <c r="G2" t="n">
-        <v>1893.36445</v>
+        <v>1840.3716</v>
       </c>
       <c r="H2" t="n">
-        <v>232.848</v>
+        <v>214.60205</v>
       </c>
       <c r="I2" t="n">
-        <v>232.848</v>
+        <v>214.60205</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2165.0954</v>
+        <v>2088.428</v>
       </c>
       <c r="L2" t="n">
-        <v>1893.37</v>
+        <v>1840.376</v>
       </c>
       <c r="M2" t="n">
-        <v>271.7254</v>
+        <v>248.052</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7254</v>
+        <v>248.052</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.693</v>
+        <v>5.259</v>
       </c>
       <c r="C3" t="n">
-        <v>21.684</v>
+        <v>21.771</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -825,31 +825,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2152.578</v>
+        <v>2082.455</v>
       </c>
       <c r="G3" t="n">
-        <v>1895.864</v>
+        <v>1847.149</v>
       </c>
       <c r="H3" t="n">
-        <v>256.713</v>
+        <v>235.305</v>
       </c>
       <c r="I3" t="n">
-        <v>256.713</v>
+        <v>235.305</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2164.5704</v>
+        <v>2089.224</v>
       </c>
       <c r="L3" t="n">
-        <v>1895.917</v>
+        <v>1847.111</v>
       </c>
       <c r="M3" t="n">
-        <v>268.6534</v>
+        <v>242.113</v>
       </c>
       <c r="N3" t="n">
-        <v>268.6534</v>
+        <v>242.113</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.076</v>
+        <v>5.449</v>
       </c>
       <c r="C4" t="n">
-        <v>24.878</v>
+        <v>26.348</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2951.867</v>
+        <v>2897.878</v>
       </c>
       <c r="G4" t="n">
-        <v>2536.387</v>
+        <v>2520.519</v>
       </c>
       <c r="H4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="I4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2173.6994</v>
+        <v>2102.4638</v>
       </c>
       <c r="L4" t="n">
-        <v>1993.949</v>
+        <v>1946.03</v>
       </c>
       <c r="M4" t="n">
-        <v>179.7504</v>
+        <v>156.4338</v>
       </c>
       <c r="N4" t="n">
-        <v>179.7504</v>
+        <v>156.4338</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.60855</v>
+        <v>5.0567</v>
       </c>
       <c r="C2" t="n">
-        <v>21.1732</v>
+        <v>21.8227</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1019,31 +1019,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2103.7971</v>
+        <v>2032.659</v>
       </c>
       <c r="G2" t="n">
-        <v>1877.54715</v>
+        <v>1824.5455</v>
       </c>
       <c r="H2" t="n">
-        <v>226.24995</v>
+        <v>208.1134</v>
       </c>
       <c r="I2" t="n">
-        <v>226.24995</v>
+        <v>208.1134</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2272.7164</v>
+        <v>2197.0652</v>
       </c>
       <c r="L2" t="n">
-        <v>1877.552</v>
+        <v>1824.549</v>
       </c>
       <c r="M2" t="n">
-        <v>395.1644</v>
+        <v>372.5162</v>
       </c>
       <c r="N2" t="n">
-        <v>395.1644</v>
+        <v>372.5162</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.63</v>
+        <v>5.145</v>
       </c>
       <c r="C3" t="n">
-        <v>21.567</v>
+        <v>21.772</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1068,31 +1068,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2126.887</v>
+        <v>2056.831</v>
       </c>
       <c r="G3" t="n">
-        <v>1886.602</v>
+        <v>1833.964</v>
       </c>
       <c r="H3" t="n">
-        <v>240.284</v>
+        <v>222.867</v>
       </c>
       <c r="I3" t="n">
-        <v>240.284</v>
+        <v>222.867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2269.5582</v>
+        <v>2193.6706</v>
       </c>
       <c r="L3" t="n">
-        <v>1886.654</v>
+        <v>1833.924</v>
       </c>
       <c r="M3" t="n">
-        <v>382.9042</v>
+        <v>359.7466</v>
       </c>
       <c r="N3" t="n">
-        <v>382.9042</v>
+        <v>359.7466</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.076</v>
+        <v>5.449</v>
       </c>
       <c r="C4" t="n">
-        <v>24.878</v>
+        <v>26.348</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1117,31 +1117,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2951.867</v>
+        <v>2897.878</v>
       </c>
       <c r="G4" t="n">
-        <v>2536.387</v>
+        <v>2520.519</v>
       </c>
       <c r="H4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="I4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2256.2886</v>
+        <v>2186.239</v>
       </c>
       <c r="L4" t="n">
-        <v>1993.949</v>
+        <v>1946.03</v>
       </c>
       <c r="M4" t="n">
-        <v>262.3396</v>
+        <v>240.209</v>
       </c>
       <c r="N4" t="n">
-        <v>262.3396</v>
+        <v>240.209</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.790549999999999</v>
+        <v>5.2129</v>
       </c>
       <c r="C2" t="n">
-        <v>22.51415</v>
+        <v>22.9933</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1262,31 +1262,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2171.06715</v>
+        <v>2099.346500000001</v>
       </c>
       <c r="G2" t="n">
-        <v>1921.16935</v>
+        <v>1862.30705</v>
       </c>
       <c r="H2" t="n">
-        <v>249.8978</v>
+        <v>237.0393</v>
       </c>
       <c r="I2" t="n">
-        <v>249.8978</v>
+        <v>237.0393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2013.9938</v>
+        <v>1945.4626</v>
       </c>
       <c r="L2" t="n">
-        <v>1921.165</v>
+        <v>1862.311</v>
       </c>
       <c r="M2" t="n">
-        <v>92.8288</v>
+        <v>83.1516</v>
       </c>
       <c r="N2" t="n">
-        <v>92.8288</v>
+        <v>83.1516</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.82</v>
+        <v>5.336</v>
       </c>
       <c r="C3" t="n">
-        <v>22.459</v>
+        <v>22.678</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1311,31 +1311,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2191.318</v>
+        <v>2118.127</v>
       </c>
       <c r="G3" t="n">
-        <v>1923.628</v>
+        <v>1871.255</v>
       </c>
       <c r="H3" t="n">
-        <v>267.69</v>
+        <v>246.872</v>
       </c>
       <c r="I3" t="n">
-        <v>267.69</v>
+        <v>246.872</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2015.0424</v>
+        <v>1949.3042</v>
       </c>
       <c r="L3" t="n">
-        <v>1923.65</v>
+        <v>1871.271</v>
       </c>
       <c r="M3" t="n">
-        <v>91.39239999999999</v>
+        <v>78.03319999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>91.39239999999999</v>
+        <v>78.03319999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.076</v>
+        <v>5.449</v>
       </c>
       <c r="C4" t="n">
-        <v>24.878</v>
+        <v>26.348</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1360,31 +1360,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2951.867</v>
+        <v>2897.878</v>
       </c>
       <c r="G4" t="n">
-        <v>2536.387</v>
+        <v>2520.519</v>
       </c>
       <c r="H4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="I4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2049.2888</v>
+        <v>1991.9494</v>
       </c>
       <c r="L4" t="n">
-        <v>1993.949</v>
+        <v>1946.03</v>
       </c>
       <c r="M4" t="n">
-        <v>55.33979999999999</v>
+        <v>45.9194</v>
       </c>
       <c r="N4" t="n">
-        <v>55.33979999999999</v>
+        <v>45.9194</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.755099999999999</v>
+        <v>5.1563</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1769</v>
+        <v>22.60825</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2148.71695</v>
+        <v>2074.068400000001</v>
       </c>
       <c r="G2" t="n">
-        <v>1911.3858</v>
+        <v>1849.28095</v>
       </c>
       <c r="H2" t="n">
-        <v>237.33115</v>
+        <v>224.78725</v>
       </c>
       <c r="I2" t="n">
-        <v>237.33115</v>
+        <v>224.78725</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2090.6632</v>
+        <v>2024.9946</v>
       </c>
       <c r="L2" t="n">
-        <v>1911.392</v>
+        <v>1849.285</v>
       </c>
       <c r="M2" t="n">
-        <v>179.2712</v>
+        <v>175.7096</v>
       </c>
       <c r="N2" t="n">
-        <v>179.2712</v>
+        <v>175.7096</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.721</v>
+        <v>5.233</v>
       </c>
       <c r="C3" t="n">
-        <v>22.303</v>
+        <v>22.501</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1554,31 +1554,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2171.454</v>
+        <v>2098.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1909.558</v>
+        <v>1856.43</v>
       </c>
       <c r="H3" t="n">
-        <v>261.895</v>
+        <v>242.04</v>
       </c>
       <c r="I3" t="n">
-        <v>261.895</v>
+        <v>242.04</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2090.7134</v>
+        <v>2024.8878</v>
       </c>
       <c r="L3" t="n">
-        <v>1909.562</v>
+        <v>1856.367</v>
       </c>
       <c r="M3" t="n">
-        <v>181.1514</v>
+        <v>168.5208</v>
       </c>
       <c r="N3" t="n">
-        <v>181.1514</v>
+        <v>168.5208</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.076</v>
+        <v>5.449</v>
       </c>
       <c r="C4" t="n">
-        <v>24.878</v>
+        <v>26.348</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2951.867</v>
+        <v>2897.878</v>
       </c>
       <c r="G4" t="n">
-        <v>2536.387</v>
+        <v>2520.519</v>
       </c>
       <c r="H4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="I4" t="n">
-        <v>415.48</v>
+        <v>377.359</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2115.5934</v>
+        <v>2053.421</v>
       </c>
       <c r="L4" t="n">
-        <v>1993.949</v>
+        <v>1946.03</v>
       </c>
       <c r="M4" t="n">
-        <v>121.6444</v>
+        <v>107.391</v>
       </c>
       <c r="N4" t="n">
-        <v>121.6444</v>
+        <v>107.391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
